--- a/Output_testing/R1_201907/Country/HKD/MN/AUST,OCEANIA, NES_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/AUST,OCEANIA, NES_201907_HKD_MN.xlsx
@@ -810,136 +810,455 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35.436301</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>21.54812514509182</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>71.37038699999999</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>35.36940273935802</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>32.898342</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>18.50601594240305</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>19.504928</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>21.01662844366621</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>3.814036944414556</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>28.811885</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>17.51994666841761</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>27.442611</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>13.59988086765645</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>25.425833</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>14.30257095773634</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>15.445639</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>16.64273028528996</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>21.62254695030597</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>7.568193</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>4.60207090706809</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>8.007987999999999</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>3.968561256420625</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>7.754292</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>4.361953905581272</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>3.930607</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.235242851297555</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-12.40676828438044</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>3.696692</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.98319861701993</v>
+      </c>
+      <c r="K21" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>4.187416</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.546286193995242</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>5.259032</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.606246493061212</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>4.299032</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.418296786169371</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>3.568137</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.844680152887404</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>105.1934138203499</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>2.070862</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.259250888917981</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>1.123309</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.5566842228520565</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>8.628928999999999</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>4.853955790229914</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>2.824444</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.043348332685071</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-17.51940646670019</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>4.128799</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.510642336820933</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>3.920843</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.943073044353714</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>5.727794</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.22200574967579</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>2.69696</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.905983874815125</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-16.02639867782429</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.1741305523021051</v>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.1083654740362339</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.05397897510509964</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>2.375922</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.560064301961653</v>
+      </c>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>3.570714</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>2.171281707120937</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>4.377792</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.169525693578482</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>3.385782</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.904574269107582</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>2.193739</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.363761479426115</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>12.8065589854635</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>LIGHTING FIXTURES AND FITTINGS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>4.677537</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.844319237687854</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>3.801894</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.884124855009527</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>5.858377</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>3.295461459991125</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>2.075802</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.236683947596177</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-19.86709639911846</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>73.713831</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>44.82394636257743</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>76.26315</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>37.79413535367367</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>83.696727</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>47.08118616400046</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>34.494252</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>37.1676777133548</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-29.22476093474995</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1290,507 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>16.842841</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>79.19837397991691</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>15.654119</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>74.04610548306438</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>14.424172</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>79.58818570951132</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>9.368157999999999</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>60.24594697211344</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>23.92948256212741</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>3.696692</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>23.77315905690702</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1.79724</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>8.450978409857687</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>2.536797</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>11.99939378582221</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>1.150173</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>6.346304129073459</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>0.979456</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>6.298810741398506</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>14.13269818556397</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT, PRESERVED, AND FRUIT PREPARATIONS (EXCLUDING FRUIT JUICES)</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>1.100258</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>5.173631013817409</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>1.301536</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>6.15644176117517</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>0.950209</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>5.242963710835468</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>0.736493</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>4.736333249645527</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>20.47526430381321</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>NITROGEN-FUNCTION COMPOUNDS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.512165</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>2.408301260424185</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>0.53801</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.544860251218448</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.340220097553956</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>1.791141988710378</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-30.54883674538065</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, `SOFT', CRUDE, REFINED OR FRACTIONATED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.328006526650883</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.2531615871553736</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.5627828474055437</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.8016665877806201</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>41.55869227013093</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.7060258307215193</v>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>1.018975720200408</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.7008168896870415</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>1.967245967654498</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.5873366287121887</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-16.09246090807196</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.9830744381461113</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1.23149080203848</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>1.023355907512171</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.4639850041055043</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-51.2970750838728</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.1606354047905773</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.2183943053877798</v>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>0.510281</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>2.399442319312163</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>0.61459</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>2.907094035048318</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>0.530827</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>2.928941630453573</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0.3771996345175158</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-70.04728784304113</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1822,441 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>35.436301</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>24.74856959602033</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>71.37038699999999</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>39.5087235059726</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>32.898342</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>20.60685575910907</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>19.504928</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>25.24672307197617</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>3.814036944414556</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>11.969044</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>8.359132022042298</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>11.788492</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>6.525791586086957</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>11.001661</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>6.891217841240015</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>6.077481</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>7.866549406498542</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>18.23005120627128</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>7.359126</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>5.139583896662428</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>7.747638</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>4.288883673369552</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>7.568824</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>4.740958204947927</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>3.858458</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.994297882609514</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-11.07904682890856</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>4.187416</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>2.924474433815455</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>5.259032</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.911258435477758</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>4.299032</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>2.692826657580318</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>3.568137</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.61851316353856</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>105.1934138203499</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>2.070862</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.446281662715131</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1.123309</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.6218336001564707</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>8.628928999999999</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>5.404986526633874</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>2.824444</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.655894320671405</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-17.51940646670019</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>4.128799</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.883536557596097</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>3.920843</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.170473056245696</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>5.727794</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.587774264608544</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>2.587174</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.348777576467695</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-19.44473851036033</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.1999933666351343</v>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.1210476066797425</v>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.06010677595206311</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>2.375922</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.075337923555307</v>
+      </c>
+      <c r="K50" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>LIGHTING FIXTURES AND FITTINGS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>4.677537</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>3.266772962066784</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>3.801894</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.104626094363426</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>5.858377</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>3.66956881357371</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>2.075802</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.686869607837274</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-19.86709639911846</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>5.402615</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>3.773164510821921</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>7.274816</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>4.027142152120117</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>4.510973</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.825582211536239</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>2.007072</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.597907101708725</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>1.492446744924791</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>2.994727</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.091505249957696</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>3.139421</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.737898888762422</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>2.440597</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.528740577416161</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>1.79263</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.320338387330455</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-1.01780004339993</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>64.672461</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>45.16698574166673</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>65.000131</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>35.98232140076526</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>76.61707</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>47.99138236740207</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>30.585218</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>39.58879155780636</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-31.47022706753254</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2288,505 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>21.014082</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>22.30711243379838</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>23.926663</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>65.10365890872737</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>26.950512</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>68.71200355755695</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>9.077432999999999</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>58.97093002406798</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-41.91866941295865</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>38.699866</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>41.08113131160957</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>5.061562</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>13.77234284586095</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>5.679915</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>14.48129592813009</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>2.922298</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>18.9845114656835</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-34.38446691580962</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>1.285622</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>3.498134954028311</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>3.663188</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>9.339525233806317</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>2.533599</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>16.4593546807835</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-11.50980688691197</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>0.774849</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.8225267114792946</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>0.903575</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>2.458597699079614</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>0.870291</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>2.218860936226733</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>0.5594749999999999</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.634591527716639</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>18.28949343617261</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>SPICES</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.1354832802082759</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.7883375874290893</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.062848825938747</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>1.118409</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>3.043153909780518</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.9981076640295187</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.5067217286954696</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>300.3079291762895</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.1092963567619235</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.308478742486628</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.2034652526047473</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.2227431783561739</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-35.51681336041526</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.09141130057017888</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.066887268187802</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>0.60217</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.6392224934812936</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>0.802416</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>2.183347404813842</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>1.023084</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>2.608416175829223</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>32.839331</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>34.85998811976276</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>3.250296</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>8.843947947793678</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>0.54571</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>1.391321525223506</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
